--- a/biology/Botanique/Alexandrine_Douillard/Alexandrine_Douillard.xlsx
+++ b/biology/Botanique/Alexandrine_Douillard/Alexandrine_Douillard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandrine Douillard est une variété de poire.
 </t>
@@ -511,11 +523,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Alexandrine ;
 Poire Douillard ;
-Bonne Alexandrine[1].</t>
+Bonne Alexandrine.</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La poire a été créée et obtenue en 1849 par l'architecte nantais Constant Douillard, l'époux d'Alexandrine[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La poire a été créée et obtenue en 1849 par l'architecte nantais Constant Douillard, l'époux d'Alexandrine.
 </t>
         </is>
       </c>
@@ -574,13 +590,15 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son bois est assez gros, avec des rameaux nombreux, étalés vers la base, érigés vers le sommet, courts, forts, gris jaunâtre, peu ponctués, ayant des coussinets bien développés.
 Les yeux sont  pointus, volumineux, presque adhérents.
 Les feuilles sont abondantes, ovales-allongées, crénelées, légèrement canaliculées (creusées d'une ou plusieurs gouttières longitudinales). Leur pétiole est court et raide.
 L'arbre se caractérise par sa grande fertilité.
-Les multiples et vigoureux rameaux de ce poirier le rendent, en pyramide, extrêmement buissonneux[1].
+Les multiples et vigoureux rameaux de ce poirier le rendent, en pyramide, extrêmement buissonneux.
 </t>
         </is>
       </c>
@@ -609,13 +627,15 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">De grosseur moyenne, le fruit est de forme allongée, irrégulière, obtuse, ventrue vers la base, amincie près du sommet, et tellement côtelée que le milieu du fruit devient pentagone.
 Avec un pédoncule court, arqué, obliquement implanté, mince à son point d'attache, il est souvent renflé à son point d'insertion.
 L'œil moyen, ouvert, est à peine enfoncé, mal développé.
 Sa peau jaunâtre, finement ponctuée de roux, est tachée de même autour du pédoncule, et marbrée de fauve ou lavée de rose tendre du côte du soleil.
-Sa chair blanche est  fine, juteuse et fondante[1]. 
+Sa chair blanche est  fine, juteuse et fondante. 
 Le fruit est très sucré, d'une saveur beurrée fort délicate. Il a cependant tendance à devenir pâteux.
 </t>
         </is>
@@ -645,9 +665,11 @@
           <t>Appréciation générales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après une floraison en mai, la maturité est obtenue en septembre-octobre pour une conservation pouvant aller jusqu'à trois mois en milieu réfrigéré[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après une floraison en mai, la maturité est obtenue en septembre-octobre pour une conservation pouvant aller jusqu'à trois mois en milieu réfrigéré.
 </t>
         </is>
       </c>
